--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt3-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt3-Fzd8.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Wnt3</t>
+  </si>
+  <si>
+    <t>Fzd8</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Wnt3</t>
-  </si>
-  <si>
-    <t>Fzd8</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -534,25 +534,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H2">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I2">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J2">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N2">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O2">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P2">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q2">
-        <v>0.3485103407760001</v>
+        <v>0.02281651681166667</v>
       </c>
       <c r="R2">
-        <v>1.394041363104</v>
+        <v>0.13689910087</v>
       </c>
       <c r="S2">
-        <v>0.1532446349227023</v>
+        <v>0.01257685989297062</v>
       </c>
       <c r="T2">
-        <v>0.1054742705752651</v>
+        <v>0.01238649062368713</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H3">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I3">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J3">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>6.130444</v>
       </c>
       <c r="O3">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P3">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q3">
-        <v>0.2772176559393333</v>
+        <v>0.01463813795111111</v>
       </c>
       <c r="R3">
-        <v>1.663305935636</v>
+        <v>0.13174324156</v>
       </c>
       <c r="S3">
-        <v>0.1218962926149018</v>
+        <v>0.008068795584563747</v>
       </c>
       <c r="T3">
-        <v>0.125847040803787</v>
+        <v>0.01191999374683029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H4">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I4">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J4">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N4">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O4">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P4">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q4">
-        <v>0.00163605357</v>
+        <v>2.813757333333333E-05</v>
       </c>
       <c r="R4">
-        <v>0.009816321420000001</v>
+        <v>0.00025323816</v>
       </c>
       <c r="S4">
-        <v>0.0007193945278363438</v>
+        <v>1.550991855867197E-05</v>
       </c>
       <c r="T4">
-        <v>0.0007427106317716979</v>
+        <v>2.291272969994475E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H5">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I5">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J5">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N5">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O5">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P5">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q5">
-        <v>0.44109123438075</v>
+        <v>0.014045144085</v>
       </c>
       <c r="R5">
-        <v>1.764364937523</v>
+        <v>0.08427086451</v>
       </c>
       <c r="S5">
-        <v>0.1939536859359011</v>
+        <v>0.007741927078164165</v>
       </c>
       <c r="T5">
-        <v>0.1334932447050557</v>
+        <v>0.007624741627005571</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H6">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I6">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J6">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N6">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O6">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P6">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q6">
-        <v>0.2788080826975</v>
+        <v>0.0002042815522222222</v>
       </c>
       <c r="R6">
-        <v>1.672848496185</v>
+        <v>0.00183853397</v>
       </c>
       <c r="S6">
-        <v>0.1225956244263593</v>
+        <v>0.0001126035355100189</v>
       </c>
       <c r="T6">
-        <v>0.1265690384718368</v>
+        <v>0.0001663486731177337</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,49 +850,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H7">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I7">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J7">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N7">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O7">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P7">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q7">
-        <v>0.004999369113833334</v>
+        <v>4.665479000000001E-05</v>
       </c>
       <c r="R7">
-        <v>0.029996214683</v>
+        <v>0.00041989311</v>
       </c>
       <c r="S7">
-        <v>0.002198289132504219</v>
+        <v>2.571692962643343E-05</v>
       </c>
       <c r="T7">
-        <v>0.002269537294549022</v>
+        <v>3.799149911806012E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H8">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I8">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J8">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N8">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O8">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P8">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q8">
-        <v>0.01840266064</v>
+        <v>0.269746650872</v>
       </c>
       <c r="R8">
-        <v>0.11041596384</v>
+        <v>1.078986603488</v>
       </c>
       <c r="S8">
-        <v>0.008091894791712271</v>
+        <v>0.1486890335899343</v>
       </c>
       <c r="T8">
-        <v>0.00835415903295548</v>
+        <v>0.09762560427536676</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H9">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I9">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J9">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>6.130444</v>
       </c>
       <c r="O9">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P9">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q9">
-        <v>0.01463813795111111</v>
+        <v>0.1730583471573333</v>
       </c>
       <c r="R9">
-        <v>0.13174324156</v>
+        <v>1.038350082944</v>
       </c>
       <c r="S9">
-        <v>0.006436584065974589</v>
+        <v>0.09539276321063768</v>
       </c>
       <c r="T9">
-        <v>0.009967797709977492</v>
+        <v>0.09394885346035955</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H10">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I10">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J10">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N10">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O10">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P10">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q10">
-        <v>8.63898E-05</v>
+        <v>0.000332654464</v>
       </c>
       <c r="R10">
-        <v>0.0007775082000000001</v>
+        <v>0.001995926784</v>
       </c>
       <c r="S10">
-        <v>3.798674476220004E-05</v>
+        <v>0.0001833649115258462</v>
       </c>
       <c r="T10">
-        <v>5.882688450412167E-05</v>
+        <v>0.0001805894139440597</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H11">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I11">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J11">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N11">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O11">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P11">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q11">
-        <v>0.023291281055</v>
+        <v>0.166047719256</v>
       </c>
       <c r="R11">
-        <v>0.13974768633</v>
+        <v>0.664190877024</v>
       </c>
       <c r="S11">
-        <v>0.01024148624746151</v>
+        <v>0.09152838348937649</v>
       </c>
       <c r="T11">
-        <v>0.01057342032335239</v>
+        <v>0.0600953112059421</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H12">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I12">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J12">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N12">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O12">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P12">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q12">
-        <v>0.01472211848333333</v>
+        <v>0.002415104154666667</v>
       </c>
       <c r="R12">
-        <v>0.13249906635</v>
+        <v>0.014490624928</v>
       </c>
       <c r="S12">
-        <v>0.006473511423631619</v>
+        <v>0.001331247307855628</v>
       </c>
       <c r="T12">
-        <v>0.01002498401055501</v>
+        <v>0.001311096922195871</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,49 +1222,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H13">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I13">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J13">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N13">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O13">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P13">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q13">
-        <v>0.0002639855477777778</v>
+        <v>0.0005515729440000001</v>
       </c>
       <c r="R13">
-        <v>0.00237586993</v>
+        <v>0.003309437664</v>
       </c>
       <c r="S13">
-        <v>0.0001160779585592744</v>
+        <v>0.0003040365755518931</v>
       </c>
       <c r="T13">
-        <v>0.0001797601954152067</v>
+        <v>0.0002994345348822965</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H14">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I14">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J14">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N14">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O14">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P14">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q14">
-        <v>0.16431375168</v>
+        <v>0.4870567204366666</v>
       </c>
       <c r="R14">
-        <v>0.9858825100800001</v>
+        <v>2.92234032262</v>
       </c>
       <c r="S14">
-        <v>0.07225094335196605</v>
+        <v>0.2684741138809373</v>
       </c>
       <c r="T14">
-        <v>0.07459264938313155</v>
+        <v>0.2644103633648318</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H15">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I15">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J15">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>6.130444</v>
       </c>
       <c r="O15">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P15">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q15">
-        <v>0.13070106608</v>
+        <v>0.3124755422844444</v>
       </c>
       <c r="R15">
-        <v>1.17630959472</v>
+        <v>2.81227988056</v>
       </c>
       <c r="S15">
-        <v>0.05747099816562141</v>
+        <v>0.1722419398074813</v>
       </c>
       <c r="T15">
-        <v>0.0890005130102597</v>
+        <v>0.2544522071391775</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,46 +1411,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H16">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I16">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J16">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N16">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O16">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P16">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q16">
-        <v>0.0007713576</v>
+        <v>0.0006006435733333333</v>
       </c>
       <c r="R16">
-        <v>0.006942218399999999</v>
+        <v>0.00540579216</v>
       </c>
       <c r="S16">
-        <v>0.0003391762021857116</v>
+        <v>0.0003310851577294173</v>
       </c>
       <c r="T16">
-        <v>0.0005252537272522505</v>
+        <v>0.0004891105454887229</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H17">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I17">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J17">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N17">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O17">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P17">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q17">
-        <v>0.20796328566</v>
+        <v>0.29981709621</v>
       </c>
       <c r="R17">
-        <v>1.24777971396</v>
+        <v>1.79890257726</v>
       </c>
       <c r="S17">
-        <v>0.09144422434448182</v>
+        <v>0.1652643847295034</v>
       </c>
       <c r="T17">
-        <v>0.09440799868054239</v>
+        <v>0.1627628652383684</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,46 +1535,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H18">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I18">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J18">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N18">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O18">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P18">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q18">
-        <v>0.1314509118</v>
+        <v>0.004360731468888888</v>
       </c>
       <c r="R18">
-        <v>1.1830582062</v>
+        <v>0.03924658322</v>
       </c>
       <c r="S18">
-        <v>0.05780071530788437</v>
+        <v>0.002403710836661985</v>
       </c>
       <c r="T18">
-        <v>0.08951111828502999</v>
+        <v>0.003550990707586279</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H19">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I19">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J19">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N19">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O19">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P19">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q19">
-        <v>0.00235707524</v>
+        <v>0.00099592454</v>
       </c>
       <c r="R19">
-        <v>0.02121367716</v>
+        <v>0.00896332086</v>
       </c>
       <c r="S19">
-        <v>0.001036437351714918</v>
+        <v>0.0005489708839846473</v>
       </c>
       <c r="T19">
-        <v>0.001605043568928333</v>
+        <v>0.0008109921035560216</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1659,16 +1659,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H20">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I20">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J20">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N20">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O20">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P20">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q20">
-        <v>0.05489113760000001</v>
+        <v>0.01979802647683334</v>
       </c>
       <c r="R20">
-        <v>0.3293468256000001</v>
+        <v>0.118788158861</v>
       </c>
       <c r="S20">
-        <v>0.02413636371097053</v>
+        <v>0.01091301565491965</v>
       </c>
       <c r="T20">
-        <v>0.0249186409498579</v>
+        <v>0.01074783111493225</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1721,16 +1721,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H21">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I21">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J21">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>6.130444</v>
       </c>
       <c r="O21">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P21">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q21">
-        <v>0.04366238448888889</v>
+        <v>0.01270159880755556</v>
       </c>
       <c r="R21">
-        <v>0.3929614604</v>
+        <v>0.114314389268</v>
       </c>
       <c r="S21">
-        <v>0.01919893153229275</v>
+        <v>0.00700134161309261</v>
       </c>
       <c r="T21">
-        <v>0.02973177446298544</v>
+        <v>0.01034304901801509</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,7 +1774,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1783,46 +1783,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H22">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I22">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J22">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N22">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O22">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P22">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q22">
-        <v>0.000257682</v>
+        <v>2.441513866666667E-05</v>
       </c>
       <c r="R22">
-        <v>0.002319138</v>
+        <v>0.000219736248</v>
       </c>
       <c r="S22">
-        <v>0.0001133062047118205</v>
+        <v>1.345804799272016E-05</v>
       </c>
       <c r="T22">
-        <v>0.0001754678127833504</v>
+        <v>1.988151096858398E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,7 +1836,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1845,16 +1845,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H23">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I23">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J23">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N23">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O23">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P23">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q23">
-        <v>0.06947282995000001</v>
+        <v>0.0121870545255</v>
       </c>
       <c r="R23">
-        <v>0.4168369797000001</v>
+        <v>0.073122327153</v>
       </c>
       <c r="S23">
-        <v>0.03054812789494103</v>
+        <v>0.006717715878386561</v>
       </c>
       <c r="T23">
-        <v>0.03153821511060438</v>
+        <v>0.006616033369882405</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1907,46 +1907,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H24">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I24">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J24">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N24">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O24">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P24">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q24">
-        <v>0.04391288016666667</v>
+        <v>0.0001772563101111111</v>
       </c>
       <c r="R24">
-        <v>0.3952159215</v>
+        <v>0.001595306791</v>
       </c>
       <c r="S24">
-        <v>0.01930907781548566</v>
+        <v>9.770675321802337E-05</v>
       </c>
       <c r="T24">
-        <v>0.02990234877043164</v>
+        <v>0.0001443417267392452</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H25">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I25">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J25">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N25">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O25">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P25">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q25">
-        <v>0.0007874115222222223</v>
+        <v>4.048263700000001E-05</v>
       </c>
       <c r="R25">
-        <v>0.0070867037</v>
+        <v>0.000364343733</v>
       </c>
       <c r="S25">
-        <v>0.0003462353254373891</v>
+        <v>2.231473181684989E-05</v>
       </c>
       <c r="T25">
-        <v>0.0005361855991677409</v>
+        <v>3.296544830407014E-05</v>
       </c>
     </row>
   </sheetData>
